--- a/producten_webshop.xlsx
+++ b/producten_webshop.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\periode 3\php-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC0E8215-7AB2-43AC-BD3E-85D34BF64F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5526FFCD-A528-402F-89E4-F2DEEB29ED2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47A9BD54-6767-4CD9-9B85-A3062880531D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19272" windowHeight="12204" xr2:uid="{47A9BD54-6767-4CD9-9B85-A3062880531D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -687,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625F0312-E903-473B-A482-4807D2689242}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
